--- a/Agile-ASSIGNMENT.xlsx
+++ b/Agile-ASSIGNMENT.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tcsdatacifs09.corp.trizetto.com\citrixprofiles\sandya.shanmugham.upm\DATA\Documents\Agile Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS_Agile_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="11_A1BEBF06E04E374AA84E82C3CB33F32C5865AB09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF6C2C93-4664-495B-9715-C9B9246500E6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Evalution citeria " sheetId="1" r:id="rId1"/>
     <sheet name="Case Study 1  Facify-me" sheetId="2" r:id="rId2"/>
     <sheet name="Case Study 1 - User Stories" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t xml:space="preserve">Assignment evalution citeria </t>
   </si>
@@ -219,76 +218,33 @@
 i) Navigation bar with necessary details.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1) Create homepage for facify-me app which will have  navigation bar with required tabs/dropdowns.
-Description – 
-facify-me homepage navigation bar should contain the following  tabs/dropdowns :                                                                                      i) It should contain About us dropdown which will have   contact us/team wins/ our achievements option
-ii) login/logout tab.
-</t>
-  </si>
-  <si>
     <t>Acceptance Criteria – Homepage created with the navigation bar containg the required tabs/dropdown.</t>
   </si>
   <si>
     <t>ii) Dashboard summary no of games, teams wins, next match, Team details, Available slots for ground</t>
   </si>
   <si>
-    <t>1.2) Create GUI frame for homepage of facify-me app with the necessary dashboard contents.
-Description – 
-facify-me homepage should contain the different cards with following contents :                                                                                      i) Display the Dashboard summary.
-ii) Team Details/Team wins.                                                                                 iii) Number of matches organized by facify-me.                                    iv) Total count of countries where we organize the event.                  v)   Ground Details - It will contain available slots.</t>
-  </si>
-  <si>
-    <t>All required cards are successfully created and displayed in dashboard.</t>
-  </si>
-  <si>
     <t>iii) Backend functionaliy.</t>
   </si>
   <si>
     <t>1.3) Implement backend functionaliy(only for next available slots of ground) using get method to fetch the details from required table based on the differnt card contents.</t>
   </si>
   <si>
-    <t>Succesfully able to display the next available ground details.</t>
-  </si>
-  <si>
     <t>2. Registration Module</t>
   </si>
   <si>
     <t>Registration page will be accessed by Admin only. Admin will have the access to register the members.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1)	Create Registration webpage for each Member with their access_groups name and only general admin can access this page to add the other members details.
-i)	Input fields – Member_Name, Age, DOB, Gender,                              Access_group, Country, Contact_No, Email_Id,                
-Password, Confirm_Password.                                                            If access_group name is Player/Coach then one extra input field is mandatory i.e. Team_Name.                        
-ii)	Button –  Create Register Button at bottom of registration page. 
-</t>
-  </si>
-  <si>
     <t>Acceptance Criteria – Registration Page created with required input fields and validations.</t>
   </si>
   <si>
     <t>Perform the required validations on input field. All the fields are mandatory except team_name which is only mandatory where access_group is player/coach.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2) Registration page input field should have proper input validations.                                                                                                i) All fields are mandatory.                                                                  ii) DOB – YYYY/MM/DD
-iii) Email – abc@xyz.com
-iv) Password – a) Maximum 7 characters.
-		       	   b) both cases should be present with at least one special characters and digit.                                                                            
-v) Confirm Password - It should match with the password   field value.          
-vi) If access_group is player/coach then team_name field is mandatory.                                                                                                                           vii) Button should be enable only when all fields are successfully validated.                                                                   </t>
-  </si>
-  <si>
     <t>Acceptance Criteria – Input fields validated for registration page.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3) Create table for member details in database.
-i)Table Name:  member_details.
-Column names:                                                                                              i) user_name – varchar(2) – Len60 
-ii) gender – varchar(2) – Len60                                                                                                                                                                                                                                                   iii) age – number                                                                                                                                                 
-iv) password - varchar(2) – Len60 (should be in encrypted form)
-v) access_group – varchar                                                                            vi) email_id - varchar                                                                                         vii) contact - number                                                                                                          viii) team_name - varchar (only for users where access_group field is player/coach).
-</t>
-  </si>
-  <si>
     <t>Acceptance Criteria – New table created with required columns for team details.</t>
   </si>
   <si>
@@ -298,9 +254,6 @@
     <t>2.4) Create backend logic and implement post method to send the regisration details to backend table.</t>
   </si>
   <si>
-    <t>User successfully able o register and the user details are successfully inserted into the table.</t>
-  </si>
-  <si>
     <t>3. Login Page</t>
   </si>
   <si>
@@ -308,9 +261,6 @@
   </si>
   <si>
     <t>3.1) Create login page with two input fields userid and password. Login button will enable only when both userid and password is submitted.                                                                                                           3.2) Create backend logic to implement any secure login technology(example JWT) .                                                                              3.3) Create forgot password page where user need to give user id, old password , new password and confirm new password and click on the submit button.                                                                                                  3.4) After clicking on the submit button password needs to be updated in the table.</t>
-  </si>
-  <si>
-    <t>Successfully able to login or reset the password.</t>
   </si>
   <si>
     <t xml:space="preserve">4. Content Editor page </t>
@@ -324,9 +274,6 @@
 4.3 Ensure there will be only 4 slots will present per ground business logic </t>
   </si>
   <si>
-    <t>Admin successfully able update the content  and the match details  are successfully inserted/updated  into the table.</t>
-  </si>
-  <si>
     <t>5. Ground Details</t>
   </si>
   <si>
@@ -336,38 +283,117 @@
     <t>5.1 Create a form to insert the ground details and make ensure there will be maximum four slots will be present and this form should have submit button which will be enable only after all mandatory details will be populated successfully and make sure this page will be only accessible by admin.                                                  5.2 Create a table in db which will store all ground related details.           5.3 Create business logic for validation and insert/update the data into the db.</t>
   </si>
   <si>
-    <t>Successfully inserted the data of ground details in db by admin.</t>
-  </si>
-  <si>
     <t>6. Booking Ground</t>
   </si>
   <si>
     <t>Ground details will be shown in form of grid with the book/Cancel button for each ground details.</t>
   </si>
   <si>
-    <t>6.1 Create a web page for showing the ground details such as ground name, ground location, ground status(available/booked/waiting for approval), team name if a ground is booked and .                                                                             6.2 Create booking/Cancel button that will be only visible to access_groupis admin.                                                                                      6.3 Create a business logic to fetch/update the details from/to the DB and trigger the mail to 5 executives.</t>
-  </si>
-  <si>
-    <t>Admin successfully able to send booking/cancel requests of ground and all relevant ground details are displayed in the ground availability page. Successfully mail will be trigerred after clicking on booking/cancel button.</t>
-  </si>
-  <si>
     <t>7. SMS functionality</t>
   </si>
   <si>
-    <t>Create business logic so that after booking/cancelling/change in slot sms will be sent to the respective person.</t>
-  </si>
-  <si>
     <t>Create business logic to check the approval count of executives if it is equal to 2 then approved sms/mail will be sent to the team members/coach.</t>
   </si>
   <si>
-    <t>SMS/Mail successfully sent after approval of two executive.</t>
+    <t xml:space="preserve">2.1)	Create Registration webpage for each Member with their access_groups name and only general admin can access this page to add the other members details.
+i)	Input fields – Member_Name, Age, DOB, Gender,                              Access_group, Country, Contact_No, Email_Id,                
+Password, Confirm_Password.                                                                        If access_group name is Player/Coach then one extra input field is mandatory i.e. Team_Name.                        
+ii)	Button –  Create Register Button at bottom of registration page. 
+</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully able to display the next available ground details.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- User successfully able o register and the user details are successfully inserted into the table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3) Create table for member details in database.
+i)Table Name:  member_details.
+Column names:                                                                                                     i) user_name – varchar(2) – Len60 
+ii) gender – varchar(2) – Len60                                                                                                                                                                                                                                                   iii) age – number                                                                                                                                                 
+iv) password - varchar(2) – Len60 (should be in encrypted form)
+v) access_group – varchar                                                                               vi) email_id - varchar                                                                                         vii) contact - number                                                                                                          viii) team_name - varchar (only for users where access_group field is player/coach).
+</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully able to login or reset the password.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Admin successfully able update the content  and the match details  are successfully inserted/updated  into the table.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully inserted the data of ground details in db by admin.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Admin successfully able to send booking/cancel requests of ground and all relevant ground details are displayed in the ground availability page. Successfully mail will be trigerred after clicking on booking/cancel button.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- SMS/Mail successfully sent after approval of two executive.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All required cards are successfully created and displayed in dashboard.</t>
+  </si>
+  <si>
+    <t>1.2) Create GUI frame for homepage of facify-me app with the necessary dashboard contents.
+Description – 
+facify-me homepage should contain the different cards with following contents :                                                                                            i) Display the Dashboard summary.
+ii) Team Details/Team wins.                                                                                 iii) Number of matches organized by facify-me.                                    iv) Total count of countries where we organize the event.                  v)   Ground Details - It will contain available slots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1) Create homepage for facify-me app which will have  navigation bar with required tabs/dropdowns.
+Description – 
+facify-me homepage navigation bar should contain the following  tabs/dropdowns :                                                                                                  i) It should contain About us dropdown which will have   contact us/team wins/ our achievements option
+ii) login/logout tab.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2) Registration page input field should have proper input validations.                                                                                                             i) All fields are mandatory.                                                                             ii) DOB – YYYY/MM/DD
+iii) Email – abc@xyz.com
+iv) Password – a) Maximum 7 characters.
+		                      	   b) both cases should be present with at least one special characters and digit.                                                                            
+v) Confirm Password - It should match with the password   field value.          
+vi) If access_group is player/coach then team_name field is mandatory.                                                                                                                           vii) Button should be enable only when all fields are successfully validated.                                                                   </t>
+  </si>
+  <si>
+    <t>6.1 Create a web page for showing the ground details such as ground name, ground location, ground status(available/booked/waiting for approval), team name if a ground is booked and .                                                                                     6.2 Create booking/Cancel button that will be only visible to access_groupis admin.                                                                                      6.3 Create a business logic to fetch/update the details from/to the DB and trigger the mail to 5 executives.</t>
+  </si>
+  <si>
+    <t>8. Change Request</t>
+  </si>
+  <si>
+    <t>Create Web Page to show the booked ground details to coach so, that he can raise the request for changing the slot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i) Create a web page to show the the booked ground details and a button to change the slot request.                                                                   ii) Create a business logic so that if coach will click on change request button coach needs to select a specific new slot from dropdown (hidden unless the change button is clicked on).  </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully able to raise the change request.</t>
+  </si>
+  <si>
+    <t>Create business logic so that after booking/cancelling/change in slot sms will be sent to the respective person</t>
+  </si>
+  <si>
+    <t>Scrum Role</t>
+  </si>
+  <si>
+    <t>Rashi- Scrum Master</t>
+  </si>
+  <si>
+    <t>Ashish - Product Owner</t>
+  </si>
+  <si>
+    <t>Ritu - Dev</t>
+  </si>
+  <si>
+    <t>Sandya - QA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +462,15 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -605,10 +644,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -679,8 +719,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -992,14 +1036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" customWidth="1"/>
@@ -1007,13 +1051,13 @@
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1021,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1029,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1037,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.75" thickBot="1">
+    <row r="5" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1045,17 +1089,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1115,9 +1159,9 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{066A3887-A212-41B0-A7CF-498DF015C610}"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1125,142 +1169,170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30">
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="20" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="20" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1271,14 +1343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -1287,7 +1359,7 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
@@ -1304,7 +1376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>50</v>
       </c>
@@ -1312,153 +1384,163 @@
         <v>51</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="150">
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D4" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="69.75" customHeight="1">
-      <c r="B4" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="26" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="67.5" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="180">
-      <c r="A6" s="21" t="s">
+      <c r="C6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="26" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="25" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="210">
-      <c r="B7" s="26" t="s">
+      <c r="D8" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="225">
-      <c r="C8" s="22" t="s">
+      <c r="D9" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="45">
-      <c r="B9" s="25" t="s">
+      <c r="C11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D11" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="B12" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="150">
-      <c r="A10" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="D12" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="C13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" ht="108" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="B15" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="147" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="130.5" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="D15" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45">
-      <c r="A15" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Agile-ASSIGNMENT.xlsx
+++ b/Agile-ASSIGNMENT.xlsx
@@ -289,9 +289,6 @@
     <t>Ground details will be shown in form of grid with the book/Cancel button for each ground details.</t>
   </si>
   <si>
-    <t>7. SMS functionality</t>
-  </si>
-  <si>
     <t>Create business logic to check the approval count of executives if it is equal to 2 then approved sms/mail will be sent to the team members/coach.</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>6.1 Create a web page for showing the ground details such as ground name, ground location, ground status(available/booked/waiting for approval), team name if a ground is booked and .                                                                                     6.2 Create booking/Cancel button that will be only visible to access_groupis admin.                                                                                      6.3 Create a business logic to fetch/update the details from/to the DB and trigger the mail to 5 executives.</t>
   </si>
   <si>
-    <t>8. Change Request</t>
-  </si>
-  <si>
     <t>Create Web Page to show the booked ground details to coach so, that he can raise the request for changing the slot.</t>
   </si>
   <si>
@@ -387,6 +381,12 @@
   </si>
   <si>
     <t>Sandya - QA</t>
+  </si>
+  <si>
+    <t>7. Change Request</t>
+  </si>
+  <si>
+    <t>8. SMS functionality</t>
   </si>
 </sst>
 </file>
@@ -713,14 +713,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,10 +1052,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1294,28 +1294,28 @@
       <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>96</v>
+      <c r="A25" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>52</v>
@@ -1395,10 +1395,10 @@
         <v>53</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>58</v>
@@ -1431,7 +1431,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>60</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="7" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="C7" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>61</v>
@@ -1453,7 +1453,7 @@
         <v>63</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>69</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,38 +1509,38 @@
         <v>74</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="D15" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Agile-ASSIGNMENT.xlsx
+++ b/Agile-ASSIGNMENT.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS_Agile_Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634e289c93caf340/Documents/Agile/BITS_Agile_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_FFC3275E951808A8F9C9F0ADFC741F8DA895E2F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99B720BA-7CFE-473C-BF27-9BAC774C7BB2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evalution citeria " sheetId="1" r:id="rId1"/>
     <sheet name="Case Study 1  Facify-me" sheetId="2" r:id="rId2"/>
     <sheet name="Case Study 1 - User Stories" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
   <si>
     <t xml:space="preserve">Assignment evalution citeria </t>
   </si>
@@ -211,189 +211,1309 @@
     <t xml:space="preserve">Story point </t>
   </si>
   <si>
-    <t>1. Facify-me home page</t>
+    <t>Scrum Role</t>
+  </si>
+  <si>
+    <t>Rashi- Scrum Master</t>
+  </si>
+  <si>
+    <t>Ashish - Product Owner</t>
+  </si>
+  <si>
+    <t>Ritu - Dev</t>
+  </si>
+  <si>
+    <t>Sandya - QA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Registration Page created with required input fields and validations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Input fields validated for registration page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – New table created with required columns for team details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- User successfully able to register and the user details are successfully inserted into the table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Successfully inserted the data of ground details in db by admin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>- Admin successfully able to send booking/cancel requests of ground and all relevant ground details are displayed in the ground availability page. Successfully mail will be trigerred after clicking on booking/cancel button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- SMS/Mail successfully sent after approval of two executive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- User successfully logged out.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Homepage created with the navigation bar containg the required tabs/dropdown.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - All required cards are successfully created and displayed in dashboard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Integration testion and Deployment done successfully.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Succesfully able to display the dashboard summary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Succesfully able to display the next available ground details and number of matches organized.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Succesfully able to display the team details.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1) Setup the servers and databases.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acceptance Criteria - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successfully completed the setup for servers and databases for all the three environments, i.e. Dev.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acceptance Criteria - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successfully Completed the Git repository setup for Dev environments.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. CI/CD setup fro Dev environment.</t>
+  </si>
+  <si>
+    <t>2. Server Setup for Dev environemnt.</t>
+  </si>
+  <si>
+    <t>1. Git Repository for Dev environment.</t>
+  </si>
+  <si>
+    <t>3.1) Setup the CI/CD.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acceptance Criteria- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Succesfully completed the CI/CD pipeline setup for Dev environments.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Testable</t>
+  </si>
+  <si>
+    <t>4. Facify-me home page</t>
   </si>
   <si>
     <t xml:space="preserve">
-i) Navigation bar with necessary details.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – Homepage created with the navigation bar containg the required tabs/dropdown.</t>
-  </si>
-  <si>
-    <t>ii) Dashboard summary no of games, teams wins, next match, Team details, Available slots for ground</t>
-  </si>
-  <si>
-    <t>iii) Backend functionaliy.</t>
-  </si>
-  <si>
-    <t>1.3) Implement backend functionaliy(only for next available slots of ground) using get method to fetch the details from required table based on the differnt card contents.</t>
-  </si>
-  <si>
-    <t>2. Registration Module</t>
-  </si>
-  <si>
-    <t>Registration page will be accessed by Admin only. Admin will have the access to register the members.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – Registration Page created with required input fields and validations.</t>
-  </si>
-  <si>
-    <t>Perform the required validations on input field. All the fields are mandatory except team_name which is only mandatory where access_group is player/coach.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – Input fields validated for registration page.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – New table created with required columns for team details.</t>
-  </si>
-  <si>
-    <t>Front end and backend connectivity logic.</t>
-  </si>
-  <si>
-    <t>2.4) Create backend logic and implement post method to send the regisration details to backend table.</t>
-  </si>
-  <si>
-    <t>3. Login Page</t>
-  </si>
-  <si>
-    <t>Login page will contain forgot password/reset password functionality.</t>
-  </si>
-  <si>
-    <t>3.1) Create login page with two input fields userid and password. Login button will enable only when both userid and password is submitted.                                                                                                           3.2) Create backend logic to implement any secure login technology(example JWT) .                                                                              3.3) Create forgot password page where user need to give user id, old password , new password and confirm new password and click on the submit button.                                                                                                  3.4) After clicking on the submit button password needs to be updated in the table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Content Editor page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility Admin should be able to insert and  edit the shedule details and update the results of the matches </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 Create front end  form with all required fields to capture the schedule details , match fixtures ,results and scores 
-4.2 Validate the fields , and busniess logic to validate the team schedule
-4.3 Ensure there will be only 4 slots will present per ground business logic </t>
-  </si>
-  <si>
-    <t>5. Ground Details</t>
-  </si>
-  <si>
-    <t>Required ground details will be inserted/updated by the admin.</t>
-  </si>
-  <si>
-    <t>5.1 Create a form to insert the ground details and make ensure there will be maximum four slots will be present and this form should have submit button which will be enable only after all mandatory details will be populated successfully and make sure this page will be only accessible by admin.                                                  5.2 Create a table in db which will store all ground related details.           5.3 Create business logic for validation and insert/update the data into the db.</t>
-  </si>
-  <si>
-    <t>6. Booking Ground</t>
-  </si>
-  <si>
-    <t>Ground details will be shown in form of grid with the book/Cancel button for each ground details.</t>
-  </si>
-  <si>
-    <t>Create business logic to check the approval count of executives if it is equal to 2 then approved sms/mail will be sent to the team members/coach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1)	Create Registration webpage for each Member with their access_groups name and only general admin can access this page to add the other members details.
-i)	Input fields – Member_Name, Age, DOB, Gender,                              Access_group, Country, Contact_No, Email_Id,                
-Password, Confirm_Password.                                                                        If access_group name is Player/Coach then one extra input field is mandatory i.e. Team_Name.                        
-ii)	Button –  Create Register Button at bottom of registration page. 
-</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Succesfully able to display the next available ground details.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- User successfully able o register and the user details are successfully inserted into the table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3) Create table for member details in database.
-i)Table Name:  member_details.
-Column names:                                                                                                     i) user_name – varchar(2) – Len60 
-ii) gender – varchar(2) – Len60                                                                                                                                                                                                                                                   iii) age – number                                                                                                                                                 
-iv) password - varchar(2) – Len60 (should be in encrypted form)
-v) access_group – varchar                                                                               vi) email_id - varchar                                                                                         vii) contact - number                                                                                                          viii) team_name - varchar (only for users where access_group field is player/coach).
-</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Successfully able to login or reset the password.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Admin successfully able update the content  and the match details  are successfully inserted/updated  into the table.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Successfully inserted the data of ground details in db by admin.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Admin successfully able to send booking/cancel requests of ground and all relevant ground details are displayed in the ground availability page. Successfully mail will be trigerred after clicking on booking/cancel button.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- SMS/Mail successfully sent after approval of two executive.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria - All required cards are successfully created and displayed in dashboard.</t>
-  </si>
-  <si>
-    <t>1.2) Create GUI frame for homepage of facify-me app with the necessary dashboard contents.
-Description – 
-facify-me homepage should contain the different cards with following contents :                                                                                            i) Display the Dashboard summary.
-ii) Team Details/Team wins.                                                                                 iii) Number of matches organized by facify-me.                                    iv) Total count of countries where we organize the event.                  v)   Ground Details - It will contain available slots.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1) Create homepage for facify-me app which will have  navigation bar with required tabs/dropdowns.
+4.1) Navigation bar with necessary details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1) Create homepage for facify-me app which will have  navigation bar with required tabs/dropdowns.
 Description – 
 facify-me homepage navigation bar should contain the following  tabs/dropdowns :                                                                                                  i) It should contain About us dropdown which will have   contact us/team wins/ our achievements option
 ii) login/logout tab.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.2) Registration page input field should have proper input validations.                                                                                                             i) All fields are mandatory.                                                                             ii) DOB – YYYY/MM/DD
-iii) Email – abc@xyz.com
-iv) Password – a) Maximum 7 characters.
-		                      	   b) both cases should be present with at least one special characters and digit.                                                                            
-v) Confirm Password - It should match with the password   field value.          
-vi) If access_group is player/coach then team_name field is mandatory.                                                                                                                           vii) Button should be enable only when all fields are successfully validated.                                                                   </t>
-  </si>
-  <si>
-    <t>6.1 Create a web page for showing the ground details such as ground name, ground location, ground status(available/booked/waiting for approval), team name if a ground is booked and .                                                                                     6.2 Create booking/Cancel button that will be only visible to access_groupis admin.                                                                                      6.3 Create a business logic to fetch/update the details from/to the DB and trigger the mail to 5 executives.</t>
-  </si>
-  <si>
-    <t>Create Web Page to show the booked ground details to coach so, that he can raise the request for changing the slot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i) Create a web page to show the the booked ground details and a button to change the slot request.                                                                   ii) Create a business logic so that if coach will click on change request button coach needs to select a specific new slot from dropdown (hidden unless the change button is clicked on).  </t>
-  </si>
-  <si>
-    <t>Acceptance Criteria - Successfully able to raise the change request.</t>
-  </si>
-  <si>
-    <t>Create business logic so that after booking/cancelling/change in slot sms will be sent to the respective person</t>
-  </si>
-  <si>
-    <t>Scrum Role</t>
-  </si>
-  <si>
-    <t>Rashi- Scrum Master</t>
-  </si>
-  <si>
-    <t>Ashish - Product Owner</t>
-  </si>
-  <si>
-    <t>Ritu - Dev</t>
-  </si>
-  <si>
-    <t>Sandya - QA</t>
-  </si>
-  <si>
-    <t>7. Change Request</t>
-  </si>
-  <si>
-    <t>8. SMS functionality</t>
+    <t>4.2) Dashboard summary no of games, teams wins, next match, Team details, Available slots for ground</t>
+  </si>
+  <si>
+    <t>4.2.1) Create GUI frame for homepage of facify-me app with the necessary dashboard contents.
+Description – 
+facify-me homepage should contain the different cards with following contents :                                                                                                               i) Display the Dashboard summary.
+ii) Team Details/Team wins.                                                                                 iii) Number of matches organized by facify-me.                                          iv) Total count of countries where we organize the event.                        v)   Ground Details - It will contain available slots.</t>
+  </si>
+  <si>
+    <t>4.3) Backend functionaliy.</t>
+  </si>
+  <si>
+    <t>4.3.1) Implement backend functionaliy(only for next available slots of ground) using get method to fetch the details, ground details and number of matches organized from required table .</t>
+  </si>
+  <si>
+    <t>4.3.2) Implement Backend logic to fetch the dashboard summary form backend and display it to frontend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3) Implement the backend logic to get the team details and </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Successfully able to login or login webpage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Successfully implemented the secure login backend functionality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Successfully updated the password after clicking on submit button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Successfully created the front end to capture the schedule dtails, match fixtures, results and scores.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Successfully crated the webpage for ground details and to raise change request.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - successfully implemented the backend logic for changing the slots and user is able to change the slots.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acceptance Criteria- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successfully validated the fields.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Succesfully implemented the 4 slots logic per grounds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Table created Successfully ground_details withs required fields.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Succesfully completed the validation and backend logic for update and delete data in database.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Succesfully created the button with required details.</t>
+    </r>
+  </si>
+  <si>
+    <t>2 (dependency on 4.3.1,4.3.2,4.3.3) Backend needs to be implement before…?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Acceptance Criteria- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Successfully able to fetch and update the details and mail trigeered successfully to 5 executibes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sequence/Priority</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Successfully implemented the forgot password functionality webpage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acceptance Criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Successfully updated the new password in the table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Acceptance Criteria- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successfully implemented the authorization and authentication logic by admin.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Deployment/Integration testing of 1st module.</t>
+  </si>
+  <si>
+    <t>5.1) Perform Deployment and Integration testing of homepage functionality.</t>
+  </si>
+  <si>
+    <t>5.1.1) Perform integration testing and deployment after completion of facify-homepage functionality.</t>
+  </si>
+  <si>
+    <t>6.4) Backend logic</t>
+  </si>
+  <si>
+    <t>6.4.1) Create backend logic and implement post method to send the regisration details to backend table.</t>
+  </si>
+  <si>
+    <t>2.1.1) Setup the Server and Database for Dev environment.</t>
+  </si>
+  <si>
+    <t>3.1.1) perform the setup for CI/CD pipeline for Dev environment.</t>
+  </si>
+  <si>
+    <t>1.1.1) Setup the Git repostory for Dev environment.</t>
+  </si>
+  <si>
+    <t>1.1)  Setup the git repository for Dev environment.</t>
+  </si>
+  <si>
+    <t>6. Git Repository for Test and Prod environment.</t>
+  </si>
+  <si>
+    <t>7. Server Setup for Test and Prod environemnt.</t>
+  </si>
+  <si>
+    <t>8. CI/CD setup fro Dev environment.</t>
+  </si>
+  <si>
+    <t>6.1)  Setup the git repository for Test and Prod environments.</t>
+  </si>
+  <si>
+    <t>7.1) Setup the servers and databases.</t>
+  </si>
+  <si>
+    <t>8.1) Setup the CI/CD.</t>
+  </si>
+  <si>
+    <t>6.1.1) Setup the Git repostory for Test and Prod environments.</t>
+  </si>
+  <si>
+    <t>7.1.1) Setup the Server and Database for Test and Prod environments.</t>
+  </si>
+  <si>
+    <t>8.1.1) perform the setup for CI/CD pipeline for Dev environments.</t>
+  </si>
+  <si>
+    <t>9. Registration Module</t>
+  </si>
+  <si>
+    <t>9.1) Registration page will be accessed by Admin only. Admin will have the access to register the members.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.1.1)	Create Registration webpage for each Member with their access_groups name and only general admin can access this page to add the other members details.
+i)	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Input fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Member_Name, Age, DOB, Gender,                              Access_group, Country, Contact_No, Email_Id,                
+Password, Confirm_Password.                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If access_group name is Player/Coach then one extra input field is mandatory i.e. Team_Name.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        
+ii)	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> –  Create Register Button at bottom of registration page. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.2.1) Registration page input field should have proper input validations.                                                                                                             i) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All fields are mandatory.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                               ii) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – YYYY/MM/DD
+iii) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – abc@xyz.com
+iv)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – a) Maximum 7 characters.
+	            b) both cases should be present with at least one special  characters and digit.                                                                            
+v) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - It should match with the password   field value.          
+vi) If access_group is player/coach then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team_name field is mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                                                                                                                           vii) Button should be enable only when all fields are successfully validated.                                                                   </t>
+    </r>
+  </si>
+  <si>
+    <t>9.2) Perform the required validations on input field. All the fields are mandatory except team_name which is only mandatory where access_group is player/coach.</t>
+  </si>
+  <si>
+    <t>9.3 ) Create table for member details.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.3.1) Create table for member details in database.
+i)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  member_details.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ii) Column names</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:                                                                                                            a) user_name – varchar(2) – Len60 
+b) gender – varchar(2) – Len60                                                                                                                                                                                                                                                   c) age – number                                                                                                                                                 
+d) password - varchar(2) – Len60 (should be in encrypted form)
+e) access_group – varchar                                                                                 f) email_id - varchar                                                                                            g) contact - number                                                                                                          h) team_name - varchar (only for users where access_group field is player/coach).
+</t>
+    </r>
+  </si>
+  <si>
+    <t>10. Deployment/Integration testing of 2nd module.</t>
+  </si>
+  <si>
+    <t>10.1) Perform Deployment and Integration testing of registration functionality.</t>
+  </si>
+  <si>
+    <t>10.1.1) Perform integration testing and deployment after completion of registration functionality.</t>
+  </si>
+  <si>
+    <t>11.1) Login page will contain forgot password/reset password functionality.</t>
+  </si>
+  <si>
+    <t>11. Login Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1.1) Create login page with two input fields userid and password. Login button will enable only when both userid and password is submitted.                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1.2) Create backend logic to implement any secure login technology(example JWT) . </t>
+  </si>
+  <si>
+    <t>11.1.3) After clicking on the submit button password needs to be updated in the table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2.1) Create forgot password page where user need to give user id, old password , new password and confirm new password and click on the submit button.        </t>
+  </si>
+  <si>
+    <t>11.2.2) After clicking on the submit button password needs to be updated in the table.</t>
+  </si>
+  <si>
+    <t>11.2) Forgot password</t>
+  </si>
+  <si>
+    <t>12. Deployment/Integration testing of 3rd module.</t>
+  </si>
+  <si>
+    <t>12.1) Perform Deployment and Integration testing of login functionality.</t>
+  </si>
+  <si>
+    <t>12.1.1) Perform integration testing and deployment after completion of login and forgot password functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Content Editor page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1) Facility Admin should be able to insert and  edit the shedule details and update the results of the matches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.1) Create front end  form with all required fields to capture the schedule details , match fixtures ,results and scores 
+</t>
+  </si>
+  <si>
+    <t>13.1.2) Validate the fields , and busniess logic to validate the team schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3) Ensure there will be only 4 slots will present per ground business logic </t>
+  </si>
+  <si>
+    <t>14.1.1) Perform integration testing and deployment after completion of Content Editor Page functionality.</t>
+  </si>
+  <si>
+    <t>14.1) Perform Deployment and Integration testing of Content Editor Page functionality.</t>
+  </si>
+  <si>
+    <t>14. Deployment/Integration testing of 4th module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1.1) Create a form to insert the ground details and make ensure there will be maximum four slots will be present and this form should have submit button which will be enable only after all mandatory details will be populated successfully and make sure this page will be only accessible by admin.                                                             </t>
+  </si>
+  <si>
+    <t>15.1) Required ground details will be inserted/updated by the admin.</t>
+  </si>
+  <si>
+    <t>15. Ground Details</t>
+  </si>
+  <si>
+    <t>15.1.2) Backend functionality for implementing authorization and authentication of admin.</t>
+  </si>
+  <si>
+    <t>15.1.3) Create a table ground_details in db which will store all ground related details.</t>
+  </si>
+  <si>
+    <t>15.1.4) Create business logic for validation and insert/update the data into the db.</t>
+  </si>
+  <si>
+    <t>16. Deployment/Integration testing of 5th module.</t>
+  </si>
+  <si>
+    <t>16.1) Perform Deployment and Integration testing of Ground Details functionality.</t>
+  </si>
+  <si>
+    <t>16.1.1) Perform integration testing and deployment after completion of ground details functionality.</t>
+  </si>
+  <si>
+    <t>17. Booking Ground</t>
+  </si>
+  <si>
+    <t>17.1) Ground details will be shown in form of grid with the book/Cancel button for each ground details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1.1) Create a web page for showing the ground details such as ground name, ground location, ground status(available/booked/waiting for approval), team name if a ground is booked and .                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1.2) Create booking/Cancel button that will be only visible to access_groupis admin. </t>
+  </si>
+  <si>
+    <t>17.1.3) Create a business logic to fetch/update the details from/to the DB and trigger the mail to 5 executives.</t>
+  </si>
+  <si>
+    <t>18. Deployment/Integration testing of 6th module.</t>
+  </si>
+  <si>
+    <t>19. Change Request</t>
+  </si>
+  <si>
+    <t>18.1) Perform Deployment and Integration testing of booking ground functionality.</t>
+  </si>
+  <si>
+    <t>18.1.1) Perform integration testing and deployment after completion of booking ground functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1.1) Create a web page to show the the booked ground details and a button to change the slot request.                                                                   </t>
+  </si>
+  <si>
+    <t>19.1) Create Web Page to show the booked ground details to coach so, that he can raise the request for changing the slot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1.2) Create a business logic so that if coach will click on change request button coach needs to select a specific new slot from dropdown (hidden unless the change button is clicked on).  </t>
+  </si>
+  <si>
+    <t>20. Deployment/Integration testing of 7th module.</t>
+  </si>
+  <si>
+    <t>20.1) Perform Deployment and Integration testing of Change request functionality.</t>
+  </si>
+  <si>
+    <t>20.1.1) Perform integration testing and deployment after completion of Change request functionality.</t>
+  </si>
+  <si>
+    <t>21.1.1) Create business logic to check the approval count of executives if it is equal to 2 then approved sms/mail will be sent to the team members/coach.</t>
+  </si>
+  <si>
+    <t>21.1 ) Create business logic so that after booking/cancelling/change in slot sms will be sent to the respective person</t>
+  </si>
+  <si>
+    <t>21. SMS functionality</t>
+  </si>
+  <si>
+    <t>22. Deployment/Integration testing of 8th module.</t>
+  </si>
+  <si>
+    <t>22.1) Perform Deployment and Integration testing of SMS functionality.</t>
+  </si>
+  <si>
+    <t>22.1.1) Perform integration testing and deployment after completion of SMS functionality.</t>
+  </si>
+  <si>
+    <t>23. Logout</t>
+  </si>
+  <si>
+    <t>24. Deployment/Integration testing of 9th module.</t>
+  </si>
+  <si>
+    <t>23.1) Create business logic for implementing the logout functionality.</t>
+  </si>
+  <si>
+    <t>24.1) Perform Deployment and Integration testing of Logout functionality.</t>
+  </si>
+  <si>
+    <t>23.1.1) Create business logic which will log out the logged in user and clear the token and user id and navigate the user to homepage of website.</t>
+  </si>
+  <si>
+    <t>24.1.1) Perform integration testing and deployment after completion of logout functionality.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,8 +1589,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,8 +1648,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -643,12 +1795,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -687,13 +1855,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,17 +1866,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -722,10 +1899,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1036,28 +2237,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1065,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1073,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1081,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1089,17 +2290,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +2311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +2322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +2333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1143,7 +2344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1159,9 +2360,9 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-    <hyperlink ref="C14" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1169,169 +2370,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.4">
       <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39.6">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="26.4">
       <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="26.4">
       <c r="A23" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
+      <c r="A25" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="20"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="20" t="s">
         <v>44</v>
       </c>
@@ -1343,204 +2544,840 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" s="44" customFormat="1" ht="28.8">
+      <c r="A1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="F1" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="57" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="22">
+        <v>5</v>
+      </c>
+      <c r="F2" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="52.8" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="22">
+        <v>5</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="22">
+        <v>5</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="129.6">
+      <c r="A5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="32">
+        <v>5</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="144">
+      <c r="B6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="32">
+        <v>8</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="69.75" customHeight="1">
+      <c r="B7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="32">
+        <v>5</v>
+      </c>
+      <c r="F7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="69.75" customHeight="1">
+      <c r="B8" s="30"/>
+      <c r="C8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="32">
+        <v>5</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" customHeight="1">
+      <c r="B9" s="30"/>
+      <c r="C9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="D9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="32">
+        <v>5</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A10" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="39">
+        <v>5</v>
+      </c>
+      <c r="F10" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="22">
+        <v>5</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="52.8" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="22">
+        <v>5</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="22">
+        <v>5</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="168.75" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="E14" s="32">
+        <v>5</v>
+      </c>
+      <c r="F14" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="201.6">
+      <c r="B15" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="E15" s="32">
+        <v>3</v>
+      </c>
+      <c r="F15" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="187.2">
+      <c r="B16" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="E16" s="32">
+        <v>5</v>
+      </c>
+      <c r="F16" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="67.2" customHeight="1">
+      <c r="B17" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="E17" s="32">
+        <v>8</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A18" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="39">
+        <v>5</v>
+      </c>
+      <c r="F18" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2">
+      <c r="A19" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="32">
+        <v>5</v>
+      </c>
+      <c r="F19" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="55.2" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="32">
+        <v>8</v>
+      </c>
+      <c r="F20" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45.6" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="32">
+        <v>5</v>
+      </c>
+      <c r="F21" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="32">
+        <v>5</v>
+      </c>
+      <c r="F22" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="32">
+        <v>3</v>
+      </c>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A24" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="39">
+        <v>5</v>
+      </c>
+      <c r="F24" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="61.8" customHeight="1">
+      <c r="A25" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="32">
+        <v>5</v>
+      </c>
+      <c r="F25" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="48" customHeight="1">
+      <c r="A26" s="28"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="32">
+        <v>3</v>
+      </c>
+      <c r="F26" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="49.8" customHeight="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="32">
+        <v>8</v>
+      </c>
+      <c r="F27" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A28" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="39">
+        <v>5</v>
+      </c>
+      <c r="F28" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="112.5" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="E29" s="32">
+        <v>5</v>
+      </c>
+      <c r="F29" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="82.8" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="32">
+        <v>5</v>
+      </c>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="1:6" ht="49.2" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="32">
+        <v>3</v>
+      </c>
+      <c r="F31" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="58.8" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="32">
+        <v>8</v>
+      </c>
+      <c r="F32" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A33" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="39">
+        <v>5</v>
+      </c>
+      <c r="F33" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="123" customHeight="1">
+      <c r="A34" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="E34" s="32">
+        <v>5</v>
+      </c>
+      <c r="F34" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="58.8" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="32">
+        <v>5</v>
+      </c>
+      <c r="F35" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="70.2" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="32">
+        <v>8</v>
+      </c>
+      <c r="F36" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A37" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="39">
+        <v>5</v>
+      </c>
+      <c r="F37" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="78" customHeight="1">
+      <c r="A38" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="32">
+        <v>8</v>
+      </c>
+      <c r="F38" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="85.2" customHeight="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="32">
+        <v>5</v>
+      </c>
+      <c r="F39" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="39">
+        <v>5</v>
+      </c>
+      <c r="F40" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="67.2" customHeight="1">
+      <c r="A41" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="E41" s="32">
+        <v>8</v>
+      </c>
+      <c r="F41" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A42" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="39">
+        <v>5</v>
+      </c>
+      <c r="F42" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="60.6" customHeight="1">
+      <c r="A43" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="E43" s="32">
+        <v>5</v>
+      </c>
+      <c r="F43" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="40" customFormat="1" ht="54" customHeight="1">
+      <c r="A44" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>84</v>
+      <c r="E44" s="39">
+        <v>5</v>
+      </c>
+      <c r="F44" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="E45">
+        <f>SUM(E2:E44)</f>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Agile-ASSIGNMENT.xlsx
+++ b/Agile-ASSIGNMENT.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS_Agile_Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tcsdatacifs09.corp.trizetto.com\citrixprofiles\sandya.shanmugham.upm\DATA\Documents\Agile Assignment\BITS_Agile_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Evalution citeria " sheetId="1" r:id="rId1"/>
     <sheet name="Case Study 1  Facify-me" sheetId="2" r:id="rId2"/>
-    <sheet name="Case Study 1 - User Stories" sheetId="3" r:id="rId3"/>
+    <sheet name="Facify-me_BacklogUserstories" sheetId="3" r:id="rId3"/>
+    <sheet name="Facify-me_Agile_Ceremonies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">Assignment evalution citeria </t>
   </si>
@@ -388,12 +389,80 @@
   <si>
     <t>8. SMS functionality</t>
   </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>Daily Stand-Up</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backlog Grooming </t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Ceremonies</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last for around 15 minutes of regular daily short meetings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These usually last for two hours as per each week that will go into the sprint or
+First day of sprint /last day of previous sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> »Essential preceding ritual of every sprint
+ »Ensures items are  transferred from the product backlog to the sprint backlog, ensuring they are ready to commit to the completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">»Team members discuss any obstruction in their work process and also report on their daily progress.
+»Extremely helpful to keep the team members encouraged on the path of success and improvement. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">»Product owner  helps the Scrum team with prioritizing the order of the product backlog. 
+»Members identify what needs to be added as well as root out defective or outdated items which need to be eliminated from the list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t really have to be  fixed schedule or frequency 
+Product owners call's to fix the frequency of shedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> » Scrum team demonstrates the work done to the PO and the stakeholders present 
+ »  Feedback and relevant new business context is discussed upon, and finally the updating of the product backlog according to how the discussion proceeds.
+</t>
+  </si>
+  <si>
+    <t>Towards the end of the sprint ,usually last for around two hours or lesser depends on  sprints size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">» Identifies the opportunities and finally creating a plan as to how certain improvements can be brought upon in the upcoming sprint. 
+» Discusses  stronger points of the sprint and continue to apply them in upcoming sprints  
+»  Team members try to work on their efficiency of work and their delivered quality. 
+</t>
+  </si>
+  <si>
+    <t>Usually last for 45 minutes as per each week that went into the sprint or end of the sprint</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +538,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -508,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -643,12 +726,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -716,6 +895,42 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -727,7 +942,157 @@
     <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -738,6 +1103,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Module"/>
+    <tableColumn id="2" name="Details" dataDxfId="9"/>
+    <tableColumn id="3" name="User  Stories" dataDxfId="8"/>
+    <tableColumn id="4" name="Acceptance Criteria"/>
+    <tableColumn id="5" name="Story point "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sl.No" dataDxfId="3"/>
+    <tableColumn id="2" name="Ceremonies" dataDxfId="2"/>
+    <tableColumn id="3" name="Benefits" dataDxfId="1"/>
+    <tableColumn id="4" name="Schedule" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,10 +1444,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1172,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,5 +1938,116 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Agile-ASSIGNMENT.xlsx
+++ b/Agile-ASSIGNMENT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tcsdatacifs09.corp.trizetto.com\citrixprofiles\sandya.shanmugham.upm\DATA\Documents\Agile Assignment\BITS_Agile_Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634e289c93caf340/Documents/Agile/BITS_Agile_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_1D983539456D6297897727A310F6DDEA07122729" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC162B8B-7BD6-4D14-B933-29B18ED31E8B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evalution citeria " sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Facify-me_BacklogUserstories" sheetId="3" r:id="rId3"/>
     <sheet name="Facify-me_Agile_Ceremonies" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="230">
   <si>
     <t xml:space="preserve">Assignment evalution citeria </t>
   </si>
@@ -212,257 +212,585 @@
     <t xml:space="preserve">Story point </t>
   </si>
   <si>
-    <t>1. Facify-me home page</t>
+    <t>Acceptance Criteria – Homepage created with the navigation bar containg the required tabs/dropdown.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria – Registration Page created with required input fields and validations.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria – Input fields validated for registration page.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria – New table created with required columns for team details.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully inserted the data of ground details in db by admin.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Admin successfully able to send booking/cancel requests of ground and all relevant ground details are displayed in the ground availability page. Successfully mail will be trigerred after clicking on booking/cancel button.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- SMS/Mail successfully sent after approval of two executive.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All required cards are successfully created and displayed in dashboard.</t>
+  </si>
+  <si>
+    <t>Scrum Role</t>
+  </si>
+  <si>
+    <t>Rashi- Scrum Master</t>
+  </si>
+  <si>
+    <t>Ashish - Product Owner</t>
+  </si>
+  <si>
+    <t>Ritu - Dev</t>
+  </si>
+  <si>
+    <t>Sandya - QA</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>Daily Stand-Up</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backlog Grooming </t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Ceremonies</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last for around 15 minutes of regular daily short meetings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These usually last for two hours as per each week that will go into the sprint or
+First day of sprint /last day of previous sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> »Essential preceding ritual of every sprint
+ »Ensures items are  transferred from the product backlog to the sprint backlog, ensuring they are ready to commit to the completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">»Team members discuss any obstruction in their work process and also report on their daily progress.
+»Extremely helpful to keep the team members encouraged on the path of success and improvement. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">»Product owner  helps the Scrum team with prioritizing the order of the product backlog. 
+»Members identify what needs to be added as well as root out defective or outdated items which need to be eliminated from the list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn’t really have to be  fixed schedule or frequency 
+Product owners call's to fix the frequency of shedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> » Scrum team demonstrates the work done to the PO and the stakeholders present 
+ »  Feedback and relevant new business context is discussed upon, and finally the updating of the product backlog according to how the discussion proceeds.
+</t>
+  </si>
+  <si>
+    <t>Towards the end of the sprint ,usually last for around two hours or lesser depends on  sprints size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">» Identifies the opportunities and finally creating a plan as to how certain improvements can be brought upon in the upcoming sprint. 
+» Discusses  stronger points of the sprint and continue to apply them in upcoming sprints  
+»  Team members try to work on their efficiency of work and their delivered quality. 
+</t>
+  </si>
+  <si>
+    <t>Usually last for 45 minutes as per each week that went into the sprint or end of the sprint</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Testable</t>
+  </si>
+  <si>
+    <t>1. Git Repository for Dev environment.</t>
+  </si>
+  <si>
+    <t>1.1)  Setup the git repository for Dev environment.</t>
+  </si>
+  <si>
+    <t>1.1.1) Setup the Git repostory for Dev environment.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully Completed the Git repository setup for Dev environments.</t>
+  </si>
+  <si>
+    <t>1. Coding should be done.                         2. Test cases for all scenarios covered.                                   3.Sonarqube report should be more than 85%.                                                     4. Source clear report should be successful                                                     5. User Acceptance Testing.                    6. Coding Standards Should be follow.                                                 7. Test Scripts only execute in Dev and Test environment.</t>
+  </si>
+  <si>
+    <t>2. Server Setup for Dev environemnt.</t>
+  </si>
+  <si>
+    <t>2.1) Setup the servers and databases.</t>
+  </si>
+  <si>
+    <t>2.1.1) Setup the Server and Database for Dev environment.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully completed the setup for servers and databases for all the three environments, i.e. Dev.</t>
+  </si>
+  <si>
+    <t>3. CI/CD setup fro Dev environment.</t>
+  </si>
+  <si>
+    <t>3.1) Setup the CI/CD.</t>
+  </si>
+  <si>
+    <t>3.1.1) perform the setup for CI/CD pipeline for Dev environment.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully completed the CI/CD pipeline setup for Dev environments.</t>
+  </si>
+  <si>
+    <t>4. Facify-me home page</t>
   </si>
   <si>
     <t xml:space="preserve">
-i) Navigation bar with necessary details.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – Homepage created with the navigation bar containg the required tabs/dropdown.</t>
-  </si>
-  <si>
-    <t>ii) Dashboard summary no of games, teams wins, next match, Team details, Available slots for ground</t>
-  </si>
-  <si>
-    <t>iii) Backend functionaliy.</t>
-  </si>
-  <si>
-    <t>1.3) Implement backend functionaliy(only for next available slots of ground) using get method to fetch the details from required table based on the differnt card contents.</t>
-  </si>
-  <si>
-    <t>2. Registration Module</t>
-  </si>
-  <si>
-    <t>Registration page will be accessed by Admin only. Admin will have the access to register the members.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – Registration Page created with required input fields and validations.</t>
-  </si>
-  <si>
-    <t>Perform the required validations on input field. All the fields are mandatory except team_name which is only mandatory where access_group is player/coach.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – Input fields validated for registration page.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria – New table created with required columns for team details.</t>
-  </si>
-  <si>
-    <t>Front end and backend connectivity logic.</t>
-  </si>
-  <si>
-    <t>2.4) Create backend logic and implement post method to send the regisration details to backend table.</t>
-  </si>
-  <si>
-    <t>3. Login Page</t>
-  </si>
-  <si>
-    <t>Login page will contain forgot password/reset password functionality.</t>
-  </si>
-  <si>
-    <t>3.1) Create login page with two input fields userid and password. Login button will enable only when both userid and password is submitted.                                                                                                           3.2) Create backend logic to implement any secure login technology(example JWT) .                                                                              3.3) Create forgot password page where user need to give user id, old password , new password and confirm new password and click on the submit button.                                                                                                  3.4) After clicking on the submit button password needs to be updated in the table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Content Editor page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility Admin should be able to insert and  edit the shedule details and update the results of the matches </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 Create front end  form with all required fields to capture the schedule details , match fixtures ,results and scores 
-4.2 Validate the fields , and busniess logic to validate the team schedule
-4.3 Ensure there will be only 4 slots will present per ground business logic </t>
-  </si>
-  <si>
-    <t>5. Ground Details</t>
-  </si>
-  <si>
-    <t>Required ground details will be inserted/updated by the admin.</t>
-  </si>
-  <si>
-    <t>5.1 Create a form to insert the ground details and make ensure there will be maximum four slots will be present and this form should have submit button which will be enable only after all mandatory details will be populated successfully and make sure this page will be only accessible by admin.                                                  5.2 Create a table in db which will store all ground related details.           5.3 Create business logic for validation and insert/update the data into the db.</t>
-  </si>
-  <si>
-    <t>6. Booking Ground</t>
-  </si>
-  <si>
-    <t>Ground details will be shown in form of grid with the book/Cancel button for each ground details.</t>
-  </si>
-  <si>
-    <t>Create business logic to check the approval count of executives if it is equal to 2 then approved sms/mail will be sent to the team members/coach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1)	Create Registration webpage for each Member with their access_groups name and only general admin can access this page to add the other members details.
-i)	Input fields – Member_Name, Age, DOB, Gender,                              Access_group, Country, Contact_No, Email_Id,                
-Password, Confirm_Password.                                                                        If access_group name is Player/Coach then one extra input field is mandatory i.e. Team_Name.                        
-ii)	Button –  Create Register Button at bottom of registration page. 
-</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Succesfully able to display the next available ground details.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- User successfully able o register and the user details are successfully inserted into the table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3) Create table for member details in database.
-i)Table Name:  member_details.
-Column names:                                                                                                     i) user_name – varchar(2) – Len60 
-ii) gender – varchar(2) – Len60                                                                                                                                                                                                                                                   iii) age – number                                                                                                                                                 
-iv) password - varchar(2) – Len60 (should be in encrypted form)
-v) access_group – varchar                                                                               vi) email_id - varchar                                                                                         vii) contact - number                                                                                                          viii) team_name - varchar (only for users where access_group field is player/coach).
-</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Successfully able to login or reset the password.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Admin successfully able update the content  and the match details  are successfully inserted/updated  into the table.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Successfully inserted the data of ground details in db by admin.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Admin successfully able to send booking/cancel requests of ground and all relevant ground details are displayed in the ground availability page. Successfully mail will be trigerred after clicking on booking/cancel button.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- SMS/Mail successfully sent after approval of two executive.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria - All required cards are successfully created and displayed in dashboard.</t>
-  </si>
-  <si>
-    <t>1.2) Create GUI frame for homepage of facify-me app with the necessary dashboard contents.
-Description – 
-facify-me homepage should contain the different cards with following contents :                                                                                            i) Display the Dashboard summary.
-ii) Team Details/Team wins.                                                                                 iii) Number of matches organized by facify-me.                                    iv) Total count of countries where we organize the event.                  v)   Ground Details - It will contain available slots.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1) Create homepage for facify-me app which will have  navigation bar with required tabs/dropdowns.
+4.1) Navigation bar with necessary details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1) Create homepage for facify-me app which will have  navigation bar with required tabs/dropdowns.
 Description – 
 facify-me homepage navigation bar should contain the following  tabs/dropdowns :                                                                                                  i) It should contain About us dropdown which will have   contact us/team wins/ our achievements option
 ii) login/logout tab.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.2) Registration page input field should have proper input validations.                                                                                                             i) All fields are mandatory.                                                                             ii) DOB – YYYY/MM/DD
+    <t>4.2) Dashboard summary no of games, teams wins, next match, Team details, Available slots for ground</t>
+  </si>
+  <si>
+    <t>4.2.1) Create GUI frame for homepage of facify-me app with the necessary dashboard contents.
+Description – 
+facify-me homepage should contain the different cards with following contents :                                                                                                               i) Display the Dashboard summary.
+ii) Team Details/Team wins.                                                                                 iii) Number of matches organized by facify-me.                                          iv) Total count of countries where we organize the event.                        v)   Ground Details - It will contain available slots.</t>
+  </si>
+  <si>
+    <t>4.3) Backend functionaliy.</t>
+  </si>
+  <si>
+    <t>4.3.1) Implement backend functionaliy(only for next available slots of ground) using get method to fetch the details, ground details and number of matches organized from required table .</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully able to display the next available ground details and number of matches organized.</t>
+  </si>
+  <si>
+    <t>4.3.2) Implement Backend logic to fetch the dashboard summary form backend and display it to frontend.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully able to display the dashboard summary.</t>
+  </si>
+  <si>
+    <t>4.3.3) Implement the backend logic to get the team details/Team wins and display it to frontend.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully able to display the team details.</t>
+  </si>
+  <si>
+    <t>6. Git Repository for  Test environment.</t>
+  </si>
+  <si>
+    <t>6.1)  Setup the git repository for Test and Prod environments.</t>
+  </si>
+  <si>
+    <t>6.1.1) Setup the Git repostory for Test environments.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully Completed the Git repository setup for Test environments.</t>
+  </si>
+  <si>
+    <t>7. Server Setup for  Test environemnt.</t>
+  </si>
+  <si>
+    <t>7.1) Setup the servers and databases.</t>
+  </si>
+  <si>
+    <t>7.1.1) Setup the Server and Database for Test  environments.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully completed the setup for servers and databases for all the three environments, i.e. Test.</t>
+  </si>
+  <si>
+    <t>8. CI/CD setup Test environment.</t>
+  </si>
+  <si>
+    <t>8.1) Setup the CI/CD.</t>
+  </si>
+  <si>
+    <t>8.1.1) perform the setup for CI/CD pipeline for Test environments.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully completed the CI/CD pipeline setup for Test environments.</t>
+  </si>
+  <si>
+    <t>9. Replicate the DB schema in QA Environment.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Database schema successfully replicated in QA environment.</t>
+  </si>
+  <si>
+    <t>End of Iteration 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Capacity- </t>
+  </si>
+  <si>
+    <t>10. Deployment/Integration testing of 1st module in QA Environment.</t>
+  </si>
+  <si>
+    <t>10.1) Perform Deployment and Integration testing of homepage functionality.</t>
+  </si>
+  <si>
+    <t>10.1.1) Perform integration testing and deployment after completion of facify-homepage functionality in QA Environment.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Integration testion and Deployment done successfully.</t>
+  </si>
+  <si>
+    <t>11. Git Repository for  Prod environment.</t>
+  </si>
+  <si>
+    <t>11.1)  Setup the git repository for Test and Prod environments.</t>
+  </si>
+  <si>
+    <t>11.1.1) Setup the Git repostory for Prod environments.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully Completed the Git repository setup for Prod environments.</t>
+  </si>
+  <si>
+    <t>12. Server Setup for  Prod environemnt.</t>
+  </si>
+  <si>
+    <t>12.1) Setup the servers and databases for Prod Environment.</t>
+  </si>
+  <si>
+    <t>12.1.1) Setup the Server and Database for Prod environments.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully completed the setup for servers and databases for all the three environments, i.e. Prod.</t>
+  </si>
+  <si>
+    <t>13. CI/CD setup for environment.</t>
+  </si>
+  <si>
+    <t>13.1) Setup the CI/CD.</t>
+  </si>
+  <si>
+    <t>13.1.1) perform the setup for CI/CD pipeline for Dev environments.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully completed the CI/CD pipeline setup for Prod environments.</t>
+  </si>
+  <si>
+    <t>14. Registration Module</t>
+  </si>
+  <si>
+    <t>14.1) Registration page will be accessed by Admin only. Admin will have the access to register the members.</t>
+  </si>
+  <si>
+    <t>14.2) Perform the required validations on input field. All the fields are mandatory except team_name which is only mandatory where access_group is player/coach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2.1) Registration page input field should have proper input validations.                                                                                                             i) All fields are mandatory.                                                                               ii) DOB – YYYY/MM/DD
 iii) Email – abc@xyz.com
 iv) Password – a) Maximum 7 characters.
-		                      	   b) both cases should be present with at least one special characters and digit.                                                                            
+	            b) both cases should be present with at least one special  characters and digit.                                                                            
 v) Confirm Password - It should match with the password   field value.          
 vi) If access_group is player/coach then team_name field is mandatory.                                                                                                                           vii) Button should be enable only when all fields are successfully validated.                                                                   </t>
   </si>
   <si>
-    <t>6.1 Create a web page for showing the ground details such as ground name, ground location, ground status(available/booked/waiting for approval), team name if a ground is booked and .                                                                                     6.2 Create booking/Cancel button that will be only visible to access_groupis admin.                                                                                      6.3 Create a business logic to fetch/update the details from/to the DB and trigger the mail to 5 executives.</t>
-  </si>
-  <si>
-    <t>Create Web Page to show the booked ground details to coach so, that he can raise the request for changing the slot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i) Create a web page to show the the booked ground details and a button to change the slot request.                                                                   ii) Create a business logic so that if coach will click on change request button coach needs to select a specific new slot from dropdown (hidden unless the change button is clicked on).  </t>
-  </si>
-  <si>
-    <t>Acceptance Criteria - Successfully able to raise the change request.</t>
-  </si>
-  <si>
-    <t>Create business logic so that after booking/cancelling/change in slot sms will be sent to the respective person</t>
-  </si>
-  <si>
-    <t>Scrum Role</t>
-  </si>
-  <si>
-    <t>Rashi- Scrum Master</t>
-  </si>
-  <si>
-    <t>Ashish - Product Owner</t>
-  </si>
-  <si>
-    <t>Ritu - Dev</t>
-  </si>
-  <si>
-    <t>Sandya - QA</t>
-  </si>
-  <si>
-    <t>7. Change Request</t>
-  </si>
-  <si>
-    <t>8. SMS functionality</t>
-  </si>
-  <si>
-    <t>Sprint Planning</t>
-  </si>
-  <si>
-    <t>Daily Stand-Up</t>
-  </si>
-  <si>
-    <t>Sprint Review</t>
-  </si>
-  <si>
-    <t>Sprint Retrospective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backlog Grooming </t>
-  </si>
-  <si>
-    <t>Sl.No</t>
-  </si>
-  <si>
-    <t>Ceremonies</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last for around 15 minutes of regular daily short meetings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">These usually last for two hours as per each week that will go into the sprint or
-First day of sprint /last day of previous sprint </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> »Essential preceding ritual of every sprint
- »Ensures items are  transferred from the product backlog to the sprint backlog, ensuring they are ready to commit to the completion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">»Team members discuss any obstruction in their work process and also report on their daily progress.
-»Extremely helpful to keep the team members encouraged on the path of success and improvement. 
+    <t>14.3 ) Create table for member details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3.1) Create table for member details in database.
+i)  Table Name:  member_details.
+ii) Column names:                                                                                                            a) user_name – varchar(2) – Len60 
+b) gender – varchar(2) – Len60                                                                                                                                                                                                                                                   c) age – number                                                                                                                                                 
+d) password - varchar(2) – Len60 (should be in encrypted form)
+e) access_group – varchar                                                                                 f) email_id - varchar                                                                                            g) contact - number                                                                                                          h) team_name - varchar (only for users where access_group field is player/coach).
 </t>
   </si>
   <si>
-    <t xml:space="preserve">»Product owner  helps the Scrum team with prioritizing the order of the product backlog. 
-»Members identify what needs to be added as well as root out defective or outdated items which need to be eliminated from the list. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t really have to be  fixed schedule or frequency 
-Product owners call's to fix the frequency of shedule </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> » Scrum team demonstrates the work done to the PO and the stakeholders present 
- »  Feedback and relevant new business context is discussed upon, and finally the updating of the product backlog according to how the discussion proceeds.
+    <t>14.4) Backend logic</t>
+  </si>
+  <si>
+    <t>14.4.1) Create backend logic and implement post method to send the regisration details to backend table.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- User successfully able to register and the user details are successfully inserted into the table.</t>
+  </si>
+  <si>
+    <t>15. Deployment/Integration testing of Registration module.</t>
+  </si>
+  <si>
+    <t>15.1) Perform Deployment and Integration testing of registration functionality.</t>
+  </si>
+  <si>
+    <t>15.1.1) Perform integration testing and deployment after completion of registration functionality.</t>
+  </si>
+  <si>
+    <t>End of Iteration 2.</t>
+  </si>
+  <si>
+    <t>16. Login Page</t>
+  </si>
+  <si>
+    <t>16.1) Login page will contain forgot password/reset password functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1.1) Create login page with two input fields userid and password. Login button will enable only when both userid and password is submitted.                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully able to login or login webpage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1.2) Create backend logic to implement any secure login technology(example JWT) . </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully implemented the secure login backend functionality.</t>
+  </si>
+  <si>
+    <t>16.1.3) After clicking on the submit button password needs to be updated in the table.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully updated the password after clicking on submit button.</t>
+  </si>
+  <si>
+    <t>16.2) Forgot password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2.1) Create forgot password page where user need to give user id, old password , new password and confirm new password and click on the submit button.        </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully implemented the forgot password functionality webpage.</t>
+  </si>
+  <si>
+    <t>16.2.2) After clicking on the submit button password needs to be updated in the table.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully updated the new password in the table.</t>
+  </si>
+  <si>
+    <t>17. Deployment/Integration testing of login module.</t>
+  </si>
+  <si>
+    <t>17.1) Perform Deployment and Integration testing of login functionality.</t>
+  </si>
+  <si>
+    <t>17.1.1) Perform integration testing and deployment after completion of login and forgot password functionality.</t>
+  </si>
+  <si>
+    <t>18. Logout</t>
+  </si>
+  <si>
+    <t>18.1) Create business logic for implementing the logout functionality.</t>
+  </si>
+  <si>
+    <t>18.1.1) Create business logic which will log out the logged in user and clear the token and user id and navigate the user to homepage of website.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- User successfully logged out.</t>
+  </si>
+  <si>
+    <t>19. Deployment/Integration testing of logout module.</t>
+  </si>
+  <si>
+    <t>19.1) Perform Deployment and Integration testing of logout functionality.</t>
+  </si>
+  <si>
+    <t>19.1.1) Perform integration testing and deployment after completion of logout functionality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Content Editor page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1) Facility Admin should be able to insert and  edit the shedule details and update the results of the matches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1.1) Create front end  form with all required fields to capture the schedule details , match fixtures ,results and scores 
 </t>
   </si>
   <si>
-    <t>Towards the end of the sprint ,usually last for around two hours or lesser depends on  sprints size.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">» Identifies the opportunities and finally creating a plan as to how certain improvements can be brought upon in the upcoming sprint. 
-» Discusses  stronger points of the sprint and continue to apply them in upcoming sprints  
-»  Team members try to work on their efficiency of work and their delivered quality. 
-</t>
-  </si>
-  <si>
-    <t>Usually last for 45 minutes as per each week that went into the sprint or end of the sprint</t>
+    <t>Acceptance Criteria- Successfully created the front end to capture the schedule dtails, match fixtures, results and scores.</t>
+  </si>
+  <si>
+    <t>20.1.2) Validate the fields , and busniess logic to validate the team schedule</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully validated the fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1.3) Ensure there will be only 4 slots will present per ground business logic </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully implemented the 4 slots logic per grounds.</t>
+  </si>
+  <si>
+    <t>End of Iteration 3</t>
+  </si>
+  <si>
+    <t>21. Deployment/Integration testing of Content editor page module.</t>
+  </si>
+  <si>
+    <t>21.1) Perform Deployment and Integration testing of Content Editor Page functionality.</t>
+  </si>
+  <si>
+    <t>21.1.1) Perform integration testing and deployment after completion of Content Editor Page functionality.</t>
+  </si>
+  <si>
+    <t>22. Ground Details</t>
+  </si>
+  <si>
+    <t>22.1) Required ground details will be inserted/updated by the admin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1.1) Create a form to insert the ground details and make ensure there will be maximum four slots will be present and this form should have submit button which will be enable only after all mandatory details will be populated successfully and make sure this page will be only accessible by admin.                                                             </t>
+  </si>
+  <si>
+    <t>22.1.2) Backend functionality for implementing authorization and authentication of admin.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully implemented the authorization and authentication logic by admin.</t>
+  </si>
+  <si>
+    <t>22.1.3) Create a table ground_details in db which will store all ground related details.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Table created Successfully ground_details withs required fields.</t>
+  </si>
+  <si>
+    <t>22.1.4) Create business logic for validation and insert/update the data into the db.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully completed the validation and backend logic for update and delete data in database.</t>
+  </si>
+  <si>
+    <t>23. Deployment/Integration testing of Ground details module.</t>
+  </si>
+  <si>
+    <t>23.1) Perform Deployment and Integration testing of Ground Details functionality.</t>
+  </si>
+  <si>
+    <t>23.1.1) Perform integration testing and deployment after completion of ground details functionality.</t>
+  </si>
+  <si>
+    <t>24. Booking Ground</t>
+  </si>
+  <si>
+    <t>24.1) Ground details will be shown in form of grid with the book/Cancel button for each ground details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1.1) Create a web page for showing the ground details such as ground name, ground location, ground status(available/booked/waiting for approval), team name if a ground is booked and .                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1.2) Create booking/Cancel button that will be only visible to access_groupis admin. </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully created the button with required details.</t>
+  </si>
+  <si>
+    <t>24.1.3) Create a business logic to fetch/update the details from/to the DB and trigger the mail to 5 executives.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Successfully able to fetch and update the details and mail trigeered successfully to 5 executibes.</t>
+  </si>
+  <si>
+    <t>25. Deployment/Integration testing of 6th module.</t>
+  </si>
+  <si>
+    <t>25.1) Perform Deployment and Integration testing of booking ground functionality.</t>
+  </si>
+  <si>
+    <t>25.1.1) Perform integration testing and deployment after completion of booking ground functionality.</t>
+  </si>
+  <si>
+    <t>26. Change Request</t>
+  </si>
+  <si>
+    <t>26.1) Create Web Page to show the booked ground details to coach so, that he can raise the request for changing the slot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1.1) Create a web page to show the the booked ground details and a button to change the slot request.                                                                   </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully crated the webpage for ground details and to raise change request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1.2) Create a business logic so that if coach will click on change request button coach needs to select a specific new slot from dropdown (hidden unless the change button is clicked on).  </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - successfully implemented the backend logic for changing the slots and user is able to change the slots.</t>
+  </si>
+  <si>
+    <t>27. Deployment/Integration testing of Change Request module.</t>
+  </si>
+  <si>
+    <t>27.1) Perform Deployment and Integration testing of Change request functionality.</t>
+  </si>
+  <si>
+    <t>27.1.1) Perform integration testing and deployment after completion of Change request functionality.</t>
+  </si>
+  <si>
+    <t>28. SMS functionality</t>
+  </si>
+  <si>
+    <t>28.1 ) Create business logic so that after booking/cancelling/change in slot sms will be sent to the respective person</t>
+  </si>
+  <si>
+    <t>28.1.1) Create business logic to check the approval count of executives if it is equal to 2 then approved sms/mail will be sent to the team members/coach.</t>
+  </si>
+  <si>
+    <t>29. Deployment/Integration testing of SMS functionality module.</t>
+  </si>
+  <si>
+    <t>29.1) Perform Deployment and Integration testing of SMS functionality.</t>
+  </si>
+  <si>
+    <t>29.1.1) Perform integration testing and deployment after completion of SMS functionality.</t>
+  </si>
+  <si>
+    <t>End Of Iteration 4</t>
+  </si>
+  <si>
+    <t>Total Points of 4 Sprint Backlogs</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1.1)	Create Registration webpage for each Member with their access_groups name and only general admin can access this page to add the other members details.
+i)Input fields – Member_Name, Age, DOB, Gender,                              Access_group, Country, Contact_No, Email_Id,                
+Password, Confirm_Password.                                                                         If access_group name is Player/Coach then one extra input field is mandatory i.e. Team_Name.                        
+ii)Button –  Create Register Button at bottom of registration page. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,12 +855,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -552,8 +874,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +950,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -822,12 +1192,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,33 +1267,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -901,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -922,13 +1306,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,12 +1321,79 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1086,12 +1537,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1106,27 +1551,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Module"/>
-    <tableColumn id="2" name="Details" dataDxfId="9"/>
-    <tableColumn id="3" name="User  Stories" dataDxfId="8"/>
-    <tableColumn id="4" name="Acceptance Criteria"/>
-    <tableColumn id="5" name="Story point "/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H53" totalsRowShown="0" dataDxfId="3" dataCellStyle="Output">
+  <autoFilter ref="A1:H53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Details" dataDxfId="7" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="User  Stories" dataDxfId="6" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Acceptance Criteria" dataDxfId="5" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Story point " dataDxfId="4" dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{CD243E7A-F833-4879-A455-5649DABAFAE7}" name="Sprint" dataDxfId="2" dataCellStyle="Output"/>
+    <tableColumn id="7" xr3:uid="{51744841-EBFB-4F2A-BD8A-0B68FDFB38FF}" name="Testable" dataDxfId="1" dataCellStyle="Output"/>
+    <tableColumn id="9" xr3:uid="{F1CA7667-B510-4B1D-AAAC-6B17B3E6B891}" name="Column4" dataDxfId="0" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Sl.No" dataDxfId="3"/>
-    <tableColumn id="2" name="Ceremonies" dataDxfId="2"/>
-    <tableColumn id="3" name="Benefits" dataDxfId="1"/>
-    <tableColumn id="4" name="Schedule" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sl.No" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ceremonies" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Benefits" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Schedule" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1428,28 +1876,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1457,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1465,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1473,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1481,17 +1929,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1535,7 +1983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1551,9 +1999,9 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-    <hyperlink ref="C14" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1561,169 +2009,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.4">
       <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39.6">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="26.4">
       <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="26.4">
       <c r="A23" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
+      <c r="A25" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="20"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="20" t="s">
         <v>44</v>
       </c>
@@ -1735,207 +2183,1110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="201.6">
+      <c r="A2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="40">
+        <v>5</v>
+      </c>
+      <c r="F2" s="43">
+        <v>1</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="56.4" customHeight="1">
+      <c r="A3" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="40">
+        <v>8</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="168.75" customHeight="1">
+      <c r="A4" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="40">
+        <v>8</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="145.19999999999999" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="E5" s="40">
+        <v>8</v>
+      </c>
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" ht="160.19999999999999" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="40">
+        <v>8</v>
+      </c>
+      <c r="F6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+    </row>
+    <row r="7" spans="1:8" ht="89.4" customHeight="1">
+      <c r="A7" s="41"/>
+      <c r="B7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="40">
+        <v>5</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="40">
+        <v>8</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="40">
+        <v>8</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:8" ht="112.5" customHeight="1">
+      <c r="A10" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="40">
+        <v>5</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" ht="141.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="40">
+        <v>8</v>
+      </c>
+      <c r="F11" s="43">
+        <v>1</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="1:8" ht="147" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="40">
+        <v>8</v>
+      </c>
+      <c r="F12" s="43">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="40">
+        <v>5</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="44">
+        <f>SUM(E2:E13)</f>
+        <v>84</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="57.6">
+      <c r="A15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="40">
+        <v>8</v>
+      </c>
+      <c r="F15" s="43">
+        <v>2</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.2">
+      <c r="A16" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="40">
+        <v>8</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="57.6">
+      <c r="A17" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="40">
+        <v>8</v>
+      </c>
+      <c r="F17" s="43">
+        <v>2</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="60.6" customHeight="1">
+      <c r="A18" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="40">
+        <v>8</v>
+      </c>
+      <c r="F18" s="43">
+        <v>2</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" ht="190.8" customHeight="1">
+      <c r="A19" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="E19" s="40">
+        <v>8</v>
+      </c>
+      <c r="F19" s="43">
+        <v>2</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="201.6">
+      <c r="A20" s="41"/>
+      <c r="B20" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="E20" s="40">
+        <v>8</v>
+      </c>
+      <c r="F20" s="43">
+        <v>2</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="187.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="E21" s="40">
+        <v>8</v>
+      </c>
+      <c r="F21" s="43">
+        <v>2</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" ht="43.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="40">
+        <v>8</v>
+      </c>
+      <c r="F22" s="43">
+        <v>2</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" ht="57.6">
+      <c r="A23" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="40">
+        <v>8</v>
+      </c>
+      <c r="F23" s="43">
+        <v>2</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" s="46" customFormat="1" ht="42" customHeight="1">
+      <c r="A24" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="44">
+        <f>SUM(E15:E23)</f>
+        <v>72</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8" ht="43.2">
+      <c r="A25" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="40">
+        <v>5</v>
+      </c>
+      <c r="F25" s="43">
+        <v>3</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8" ht="43.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="40">
+        <v>8</v>
+      </c>
+      <c r="F26" s="43">
+        <v>3</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" ht="43.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="40">
+        <v>5</v>
+      </c>
+      <c r="F27" s="43">
+        <v>3</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="40">
+        <v>5</v>
+      </c>
+      <c r="F28" s="43">
+        <v>3</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" ht="47.4" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="40">
+        <v>3</v>
+      </c>
+      <c r="F29" s="43">
+        <v>3</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8" ht="64.2" customHeight="1">
+      <c r="A30" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="40">
+        <v>8</v>
+      </c>
+      <c r="F30" s="43">
+        <v>3</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" ht="67.8" customHeight="1">
+      <c r="A31" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="40">
+        <v>5</v>
+      </c>
+      <c r="F31" s="43">
+        <v>3</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8" ht="60.6" customHeight="1">
+      <c r="A32" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="40">
+        <v>8</v>
+      </c>
+      <c r="F32" s="43">
+        <v>3</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" ht="69.599999999999994" customHeight="1">
+      <c r="A33" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="40">
+        <v>5</v>
+      </c>
+      <c r="F33" s="43">
+        <v>3</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="1:8" ht="43.8" customHeight="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="40">
+        <v>3</v>
+      </c>
+      <c r="F34" s="43">
+        <v>3</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:8" ht="49.2" customHeight="1">
+      <c r="A35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="40">
+        <v>8</v>
+      </c>
+      <c r="F35" s="43">
+        <v>3</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1">
+      <c r="A36" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="44">
+        <f>SUM(E25:E35)</f>
+        <v>63</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+    </row>
+    <row r="37" spans="1:8" ht="57.6">
+      <c r="A37" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="40">
+        <v>8</v>
+      </c>
+      <c r="F37" s="43">
+        <v>4</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:8" ht="108.6" customHeight="1">
+      <c r="A38" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="E38" s="40">
+        <v>5</v>
+      </c>
+      <c r="F38" s="43">
+        <v>4</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:8" ht="49.2" customHeight="1">
+      <c r="A39" s="48"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="40">
+        <v>5</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:8" ht="43.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="43">
+        <v>4</v>
+      </c>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:8" ht="43.2">
+      <c r="A41" s="48"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="40">
+        <v>8</v>
+      </c>
+      <c r="F41" s="43">
+        <v>4</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" ht="57.6">
+      <c r="A42" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="40">
+        <v>8</v>
+      </c>
+      <c r="F42" s="43">
+        <v>4</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+    </row>
+    <row r="43" spans="1:8" ht="108.6" customHeight="1">
+      <c r="A43" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="E43" s="40">
+        <v>5</v>
+      </c>
+      <c r="F43" s="43">
+        <v>4</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="40">
+        <v>5</v>
+      </c>
+      <c r="F44" s="43">
+        <v>4</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+    </row>
+    <row r="45" spans="1:8" ht="57.6" customHeight="1">
+      <c r="A45" s="47"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="40">
+        <v>8</v>
+      </c>
+      <c r="F45" s="43">
+        <v>4</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+    </row>
+    <row r="46" spans="1:8" ht="89.4" customHeight="1">
+      <c r="A46" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="40">
+        <v>8</v>
+      </c>
+      <c r="F46" s="43">
+        <v>4</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="1:8" ht="73.2" customHeight="1">
+      <c r="A47" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="40">
+        <v>8</v>
+      </c>
+      <c r="F47" s="43">
+        <v>4</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="1:8" ht="67.2" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="40">
+        <v>5</v>
+      </c>
+      <c r="F48" s="43">
+        <v>4</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+    </row>
+    <row r="49" spans="1:8" ht="73.2" customHeight="1">
+      <c r="A49" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="40">
+        <v>5</v>
+      </c>
+      <c r="F49" s="43">
+        <v>4</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+    </row>
+    <row r="50" spans="1:8" ht="60" customHeight="1">
+      <c r="A50" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>84</v>
-      </c>
+      <c r="E50" s="40">
+        <v>8</v>
+      </c>
+      <c r="F50" s="43">
+        <v>4</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+    </row>
+    <row r="51" spans="1:8" ht="63.6" customHeight="1">
+      <c r="A51" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="40">
+        <v>5</v>
+      </c>
+      <c r="F51" s="43">
+        <v>4</v>
+      </c>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+    </row>
+    <row r="52" spans="1:8" ht="51" customHeight="1">
+      <c r="A52" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="44">
+        <f>SUM(E37:E51)</f>
+        <v>94</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" ht="44.4" customHeight="1">
+      <c r="D53" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="52">
+        <f>SUM(E52,E36,E24,E14)</f>
+        <v>313</v>
+      </c>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1945,102 +3296,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+    <row r="1" spans="1:4">
+      <c r="A1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="78.75" customHeight="1">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="B2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="B3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="B4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="100.8">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="B5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="115.2">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>119</v>
+      <c r="B6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Agile-ASSIGNMENT.xlsx
+++ b/Agile-ASSIGNMENT.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634e289c93caf340/Documents/Agile/BITS_Agile_Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tcsdatacifs09.corp.trizetto.com\citrixprofiles\sandya.shanmugham.upm\DATA\Documents\Agile Assignment\BITS_Agile_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_1D983539456D6297897727A310F6DDEA07122729" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC162B8B-7BD6-4D14-B933-29B18ED31E8B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Evalution citeria " sheetId="1" r:id="rId1"/>
     <sheet name="Case Study 1  Facify-me" sheetId="2" r:id="rId2"/>
     <sheet name="Facify-me_BacklogUserstories" sheetId="3" r:id="rId3"/>
-    <sheet name="Facify-me_Agile_Ceremonies" sheetId="4" r:id="rId4"/>
+    <sheet name="Agile_Ceremonies_Benefits" sheetId="4" r:id="rId4"/>
+    <sheet name="Case Study 2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="237">
   <si>
     <t xml:space="preserve">Assignment evalution citeria </t>
   </si>
@@ -239,12 +239,6 @@
     <t>Scrum Role</t>
   </si>
   <si>
-    <t>Rashi- Scrum Master</t>
-  </si>
-  <si>
-    <t>Ashish - Product Owner</t>
-  </si>
-  <si>
     <t>Ritu - Dev</t>
   </si>
   <si>
@@ -785,12 +779,79 @@
 Password, Confirm_Password.                                                                         If access_group name is Player/Coach then one extra input field is mandatory i.e. Team_Name.                        
 ii)Button –  Create Register Button at bottom of registration page. </t>
   </si>
+  <si>
+    <t>External consultant feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our advise to new Scrum Master would be as below 
+i) Educate the team on retrospective ceremony and its components.     It’s equally important to discuss below 3 points.
+   a) Start doing
+    b) Stop doing
+    c) Continue doing
+ii) Scrum master should inform the team in advance that             retrospective board is ready so that they can prepare their points in advance.
+iii) Scrum master has to ensure backlog is ready and should inform       team members in advance to have a look. (Sprint planning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our advise to the Product Owner would be as below 
+ i) Ensure to have prioritized product backlog items. Also there should    be "definition of done" and acceptance criteria for each user story
+ ii) Ensure that user story contains the correct information and in a   clear way so that everyone can easily understand the requirement.</t>
+  </si>
+  <si>
+    <t>Advise to the Development Team would be like 
+ Be confident and share your views about sprint ceremonies and tell them as it’s a safe place to talk.</t>
+  </si>
+  <si>
+    <t>Ashish- Scrum Master</t>
+  </si>
+  <si>
+    <t>Rashi - Product Owner</t>
+  </si>
+  <si>
+    <t>Non functional requirements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint ceremony that needs attention would be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>retrospective</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">needs some more focus </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,8 +973,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,6 +1041,18 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -1229,7 +1322,7 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1315,12 +1408,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1361,6 +1448,29 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1370,30 +1480,6 @@
     <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1537,6 +1623,30 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1551,30 +1661,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H53" totalsRowShown="0" dataDxfId="3" dataCellStyle="Output">
-  <autoFilter ref="A1:H53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H53" totalsRowShown="0" dataDxfId="15" dataCellStyle="Output">
+  <autoFilter ref="A1:H53"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module" dataCellStyle="Output"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Details" dataDxfId="7" dataCellStyle="Output"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="User  Stories" dataDxfId="6" dataCellStyle="Output"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Acceptance Criteria" dataDxfId="5" dataCellStyle="Output"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Story point " dataDxfId="4" dataCellStyle="Output"/>
-    <tableColumn id="6" xr3:uid="{CD243E7A-F833-4879-A455-5649DABAFAE7}" name="Sprint" dataDxfId="2" dataCellStyle="Output"/>
-    <tableColumn id="7" xr3:uid="{51744841-EBFB-4F2A-BD8A-0B68FDFB38FF}" name="Testable" dataDxfId="1" dataCellStyle="Output"/>
-    <tableColumn id="9" xr3:uid="{F1CA7667-B510-4B1D-AAAC-6B17B3E6B891}" name="Column4" dataDxfId="0" dataCellStyle="Output"/>
+    <tableColumn id="1" name="Module" dataCellStyle="Output"/>
+    <tableColumn id="2" name="Details" dataDxfId="14" dataCellStyle="Output"/>
+    <tableColumn id="3" name="User  Stories" dataDxfId="13" dataCellStyle="Output"/>
+    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="12" dataCellStyle="Output"/>
+    <tableColumn id="5" name="Story point " dataDxfId="11" dataCellStyle="Output"/>
+    <tableColumn id="6" name="Sprint" dataDxfId="10" dataCellStyle="Output"/>
+    <tableColumn id="7" name="Testable" dataDxfId="9" dataCellStyle="Output"/>
+    <tableColumn id="9" name="Column4" dataDxfId="8" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D6"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sl.No" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ceremonies" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Benefits" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Schedule" dataDxfId="8"/>
+    <tableColumn id="1" name="Sl.No" dataDxfId="3"/>
+    <tableColumn id="2" name="Ceremonies" dataDxfId="2"/>
+    <tableColumn id="3" name="Benefits" dataDxfId="1"/>
+    <tableColumn id="4" name="Schedule" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1876,28 +1986,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1905,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1913,7 +2023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1921,7 +2031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" thickBot="1">
+    <row r="5" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1929,17 +2039,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +2060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +2071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1972,7 +2082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1983,7 +2093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1999,9 +2109,9 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2009,170 +2119,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:A18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5546875" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.4">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26.4">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.4">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="26.4">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="26.4">
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="20" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="20" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="20" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2183,25 +2298,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -2218,1060 +2333,1060 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="201.6">
-      <c r="A2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="E2" s="38">
+        <v>5</v>
+      </c>
+      <c r="F2" s="41">
+        <v>1</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="39" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="40">
+      <c r="B3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="38">
+        <v>8</v>
+      </c>
+      <c r="F3" s="41">
+        <v>1</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="38">
+        <v>8</v>
+      </c>
+      <c r="F4" s="41">
+        <v>1</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="38">
+        <v>8</v>
+      </c>
+      <c r="F5" s="41">
+        <v>1</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="38">
+        <v>8</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="38">
         <v>5</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F7" s="41">
         <v>1</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="56.4" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="40">
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="38">
         <v>8</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F8" s="41">
         <v>1</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8" ht="168.75" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="40">
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="38">
         <v>8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F9" s="41">
         <v>1</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-    </row>
-    <row r="5" spans="1:8" ht="145.19999999999999" customHeight="1">
-      <c r="A5" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="40">
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5</v>
+      </c>
+      <c r="F10" s="41">
+        <v>1</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="38">
         <v>8</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F11" s="41">
         <v>1</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:8" ht="160.19999999999999" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="38">
         <v>8</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F12" s="41">
         <v>1</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="1:8" ht="89.4" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="38">
         <v>5</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F13" s="41">
         <v>1</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" ht="43.2" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="40">
-        <v>8</v>
-      </c>
-      <c r="F8" s="43">
-        <v>1</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-    </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="40">
-        <v>8</v>
-      </c>
-      <c r="F9" s="43">
-        <v>1</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" ht="112.5" customHeight="1">
-      <c r="A10" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="40">
-        <v>5</v>
-      </c>
-      <c r="F10" s="43">
-        <v>1</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" ht="141.75" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="40">
-        <v>8</v>
-      </c>
-      <c r="F11" s="43">
-        <v>1</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="1:8" ht="147" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="40">
-        <v>8</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="40">
-        <v>5</v>
-      </c>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1">
-      <c r="A14" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="E14" s="42">
         <f>SUM(E2:E13)</f>
         <v>84</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="57.6">
-      <c r="A15" s="43" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="E15" s="38">
+        <v>8</v>
+      </c>
+      <c r="F15" s="41">
+        <v>2</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="40">
+      <c r="C16" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="38">
         <v>8</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F16" s="41">
         <v>2</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="43.2">
-      <c r="A16" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="39" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="40">
+      <c r="C17" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="38">
         <v>8</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F17" s="41">
         <v>2</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="1:8" ht="57.6">
-      <c r="A17" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="39" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="40">
+      <c r="C18" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="38">
         <v>8</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F18" s="41">
         <v>2</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" ht="60.6" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" ht="190.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="B19" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="40">
+      <c r="C19" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="38">
         <v>8</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F19" s="41">
         <v>2</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" ht="190.8" customHeight="1">
-      <c r="A19" s="47" t="s">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="C20" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="40">
+      <c r="D20" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="38">
         <v>8</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F20" s="41">
         <v>2</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" ht="201.6">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43" t="s">
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="40">
+      <c r="D21" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="38">
         <v>8</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F21" s="41">
         <v>2</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="1:8" ht="187.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C22" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="40">
+      <c r="D22" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="38">
         <v>8</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F22" s="41">
         <v>2</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" ht="43.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="39" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="B23" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="40">
+      <c r="C23" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="38">
         <v>8</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F23" s="41">
         <v>2</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="1:8" ht="57.6">
-      <c r="A23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="43" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" s="44" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="40">
-        <v>8</v>
-      </c>
-      <c r="F23" s="43">
-        <v>2</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:8" s="46" customFormat="1" ht="42" customHeight="1">
-      <c r="A24" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="44">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="42">
         <f>SUM(E15:E23)</f>
         <v>72</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-    </row>
-    <row r="25" spans="1:8" ht="43.2">
-      <c r="A25" s="48" t="s">
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="D25" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="E25" s="38">
+        <v>5</v>
+      </c>
+      <c r="F25" s="41">
+        <v>3</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D26" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E26" s="38">
+        <v>8</v>
+      </c>
+      <c r="F26" s="41">
+        <v>3</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="38">
         <v>5</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F27" s="41">
         <v>3</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="1:8" ht="43.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="40">
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="38">
+        <v>5</v>
+      </c>
+      <c r="F28" s="41">
+        <v>3</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:8" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="38">
+        <v>3</v>
+      </c>
+      <c r="F29" s="41">
+        <v>3</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="38">
         <v>8</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F30" s="41">
         <v>3</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="1:8" ht="43.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="40">
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="31" spans="1:8" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="38">
         <v>5</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F31" s="41">
         <v>3</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+    </row>
+    <row r="32" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="38">
+        <v>8</v>
+      </c>
+      <c r="F32" s="41">
+        <v>3</v>
+      </c>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+    </row>
+    <row r="33" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="38">
         <v>5</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F33" s="41">
         <v>3</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-    </row>
-    <row r="29" spans="1:8" ht="47.4" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="40">
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="38">
         <v>3</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F34" s="41">
         <v>3</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="1:8" ht="64.2" customHeight="1">
-      <c r="A30" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="40">
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="38">
         <v>8</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F35" s="41">
         <v>3</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-    </row>
-    <row r="31" spans="1:8" ht="67.8" customHeight="1">
-      <c r="A31" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="40">
-        <v>5</v>
-      </c>
-      <c r="F31" s="43">
-        <v>3</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-    </row>
-    <row r="32" spans="1:8" ht="60.6" customHeight="1">
-      <c r="A32" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="40">
-        <v>8</v>
-      </c>
-      <c r="F32" s="43">
-        <v>3</v>
-      </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-    </row>
-    <row r="33" spans="1:8" ht="69.599999999999994" customHeight="1">
-      <c r="A33" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="40">
-        <v>5</v>
-      </c>
-      <c r="F33" s="43">
-        <v>3</v>
-      </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-    </row>
-    <row r="34" spans="1:8" ht="43.8" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="40">
-        <v>3</v>
-      </c>
-      <c r="F34" s="43">
-        <v>3</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-    </row>
-    <row r="35" spans="1:8" ht="49.2" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="39" t="s">
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+    </row>
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="40">
-        <v>8</v>
-      </c>
-      <c r="F35" s="43">
-        <v>3</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-    </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1">
-      <c r="A36" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="44">
+      <c r="B36" s="43"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="42">
         <f>SUM(E25:E35)</f>
         <v>63</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-    </row>
-    <row r="37" spans="1:8" ht="57.6">
-      <c r="A37" s="43" t="s">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="D37" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="38">
+        <v>8</v>
+      </c>
+      <c r="F37" s="41">
+        <v>4</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+    </row>
+    <row r="38" spans="1:8" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="B38" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="40">
+      <c r="C38" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="38">
+        <v>5</v>
+      </c>
+      <c r="F38" s="41">
+        <v>4</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+    </row>
+    <row r="39" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="38">
+        <v>5</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="38">
+        <v>3</v>
+      </c>
+      <c r="F40" s="41">
+        <v>4</v>
+      </c>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="38">
         <v>8</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F41" s="41">
         <v>4</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-    </row>
-    <row r="38" spans="1:8" ht="108.6" customHeight="1">
-      <c r="A38" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="40">
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+    </row>
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="38">
+        <v>8</v>
+      </c>
+      <c r="F42" s="41">
+        <v>4</v>
+      </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+    </row>
+    <row r="43" spans="1:8" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="38">
         <v>5</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F43" s="41">
         <v>4</v>
       </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-    </row>
-    <row r="39" spans="1:8" ht="49.2" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="40">
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+    </row>
+    <row r="44" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="38">
         <v>5</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" ht="43.2">
-      <c r="A40" s="48"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="43">
+      <c r="F44" s="41">
         <v>4</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-    </row>
-    <row r="41" spans="1:8" ht="43.2">
-      <c r="A41" s="48"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="40">
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+    </row>
+    <row r="45" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="38">
         <v>8</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F45" s="41">
         <v>4</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-    </row>
-    <row r="42" spans="1:8" ht="57.6">
-      <c r="A42" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="40">
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+    </row>
+    <row r="46" spans="1:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="38">
         <v>8</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F46" s="41">
         <v>4</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="1:8" ht="108.6" customHeight="1">
-      <c r="A43" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="40">
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+    </row>
+    <row r="47" spans="1:8" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="38">
+        <v>8</v>
+      </c>
+      <c r="F47" s="41">
+        <v>4</v>
+      </c>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+    </row>
+    <row r="48" spans="1:8" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="38">
         <v>5</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F48" s="41">
         <v>4</v>
       </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-    </row>
-    <row r="44" spans="1:8" ht="43.2" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" s="40">
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49" spans="1:8" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="38">
         <v>5</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F49" s="41">
         <v>4</v>
       </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:8" ht="57.6" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="40">
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+    </row>
+    <row r="50" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="38">
         <v>8</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F50" s="41">
         <v>4</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-    </row>
-    <row r="46" spans="1:8" ht="89.4" customHeight="1">
-      <c r="A46" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" s="40">
-        <v>8</v>
-      </c>
-      <c r="F46" s="43">
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+    </row>
+    <row r="51" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="38">
+        <v>5</v>
+      </c>
+      <c r="F51" s="41">
         <v>4</v>
       </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-    </row>
-    <row r="47" spans="1:8" ht="73.2" customHeight="1">
-      <c r="A47" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="40">
-        <v>8</v>
-      </c>
-      <c r="F47" s="43">
-        <v>4</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="1:8" ht="67.2" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E48" s="40">
-        <v>5</v>
-      </c>
-      <c r="F48" s="43">
-        <v>4</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-    </row>
-    <row r="49" spans="1:8" ht="73.2" customHeight="1">
-      <c r="A49" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="40">
-        <v>5</v>
-      </c>
-      <c r="F49" s="43">
-        <v>4</v>
-      </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-    </row>
-    <row r="50" spans="1:8" ht="60" customHeight="1">
-      <c r="A50" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="40">
-        <v>8</v>
-      </c>
-      <c r="F50" s="43">
-        <v>4</v>
-      </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-    </row>
-    <row r="51" spans="1:8" ht="63.6" customHeight="1">
-      <c r="A51" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="43" t="s">
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+    </row>
+    <row r="52" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="40">
-        <v>5</v>
-      </c>
-      <c r="F51" s="43">
-        <v>4</v>
-      </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-    </row>
-    <row r="52" spans="1:8" ht="51" customHeight="1">
-      <c r="A52" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="44">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="42">
         <f>SUM(E37:E51)</f>
         <v>94</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-    </row>
-    <row r="53" spans="1:8" ht="44.4" customHeight="1">
-      <c r="D53" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="E53" s="52">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+    </row>
+    <row r="53" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="50">
         <f>SUM(E52,E36,E24,E14)</f>
         <v>313</v>
       </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -3296,102 +3411,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="78.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="100.8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="115.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3401,4 +3516,80 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="231" x14ac:dyDescent="0.3">
+      <c r="A3" s="55">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="55">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
+        <v>4</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>